--- a/Software/Palo Alto Networks.xlsx
+++ b/Software/Palo Alto Networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204922-1401-C04F-94DC-F00C6FB7FFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F0398-C5C2-FA46-AF0A-F2F6BA52FCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Palo Alto Networks</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,15 +975,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -956,14 +985,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -978,6 +1002,12 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,9 +1026,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2157,6 +2191,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zgm7&amp;q=XNAS%3aPANW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1zgm7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>213.63310000000001</v>
+    <v>132.22</v>
+    <v>1.1797</v>
+    <v>-2.25</v>
+    <v>-1.1587E-2</v>
+    <v>-0.05</v>
+    <v>-2.6049999999999999E-4</v>
+    <v>USD</v>
+    <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company enables enterprises, service providers, and government entities to secure all users, applications, data, networks, clouds and devices with visibility and context, continuously across all locations. It delivers cybersecurity products covering a range of use cases, enabling its end-customers to secure their networks, remote and hybrid workforces, branch locations, and public and private clouds, and to advance their security operations centers (SOC). Its products are available in the form of the product, subscription, and support offerings, such as Firewall Appliances and Software, Panorama, Virtual System Upgrades, URL Filtering, Advanced URL Filtering, DNS Security, and IoT Security, among others. Its solutions are focused on five areas, which includes Network Security, Secure Access Service Edge, Cloud Security, Security Analytics and Automation, and Threat Intelligence and Security Consulting (Unit 42).</v>
+    <v>13932</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
+    <v>192.31</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.996740010938</v>
+    <v>0</v>
+    <v>188.72020000000001</v>
+    <v>58079534247</v>
+    <v>PALO ALTO NETWORKS, INC.</v>
+    <v>PALO ALTO NETWORKS, INC.</v>
+    <v>191.8</v>
+    <v>2509.6419999999998</v>
+    <v>194.18</v>
+    <v>191.93</v>
+    <v>191.88</v>
+    <v>302607900</v>
+    <v>PANW</v>
+    <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
+    <v>2935246</v>
+    <v>3524606</v>
+    <v>2005</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2456,11 +2930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T89" sqref="T89"/>
+      <selection pane="bottomRight" activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,8 +2945,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2009</v>
@@ -2656,21 +3130,21 @@
         <v>13637000000</v>
       </c>
       <c r="U3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2856,16 +3330,16 @@
         <v>3782800000</v>
       </c>
       <c r="U6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="W6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -2980,7 +3454,7 @@
     </row>
     <row r="9" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3039,16 +3513,16 @@
         <v>0.25769335635735707</v>
       </c>
       <c r="U9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3208,21 +3682,21 @@
         <v>2553900000</v>
       </c>
       <c r="U12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="V12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="W12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3391,16 +3865,16 @@
         <v>3971600000</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3455,15 +3929,15 @@
       </c>
       <c r="V16" s="28">
         <f>W101/O3</f>
-        <v>10.214850495319459</v>
+        <v>10.557036125965645</v>
       </c>
       <c r="W16" s="28">
         <f>W101/O28</f>
-        <v>-210.47565543071161</v>
+        <v>-217.52634549438201</v>
       </c>
       <c r="X16" s="29">
         <f>W101/O106</f>
-        <v>31.36168312963893</v>
+        <v>32.412263098945253</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -3560,7 +4034,7 @@
         <v>282600000</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -3609,14 +4083,14 @@
       <c r="O19" s="10">
         <v>95600000</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="54">
         <f>O40-O56-O61</f>
         <v>-318400000</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4050,7 +4524,7 @@
     </row>
     <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4343,7 +4817,7 @@
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6469,7 +6943,7 @@
     </row>
     <row r="80" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:O80" si="6">B79/B3</f>
@@ -6668,10 +7142,10 @@
       <c r="O83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="W83" s="64"/>
+      <c r="V83" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="W83" s="61"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6719,10 +7193,10 @@
       <c r="O84" s="1">
         <v>69300000</v>
       </c>
-      <c r="V84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="W84" s="66"/>
+      <c r="V84" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="W84" s="63"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6770,10 +7244,10 @@
       <c r="O85" s="1">
         <v>1541600000</v>
       </c>
-      <c r="V85" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="W85" s="54">
+      <c r="V85" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="W85" s="47">
         <f>O17</f>
         <v>20200000</v>
       </c>
@@ -6824,10 +7298,10 @@
       <c r="O86" s="1">
         <v>437200000</v>
       </c>
-      <c r="V86" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="W86" s="54">
+      <c r="V86" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="W86" s="47">
         <f>O56</f>
         <v>3676800000</v>
       </c>
@@ -6878,10 +7352,10 @@
       <c r="O87" s="10">
         <v>1984700000</v>
       </c>
-      <c r="V87" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="W87" s="54">
+      <c r="V87" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="W87" s="47">
         <f>O61</f>
         <v>276100000</v>
       </c>
@@ -6932,17 +7406,17 @@
       <c r="O88" s="1">
         <v>-192800000</v>
       </c>
-      <c r="V88" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="W88" s="56">
+      <c r="V88" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="W88" s="49">
         <f>W85/(W86+W87)</f>
         <v>5.1101722785802826E-3</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:O89" si="7">(-1*B88)/B3</f>
@@ -7000,10 +7474,10 @@
         <f t="shared" si="7"/>
         <v>3.5044987730618919E-2</v>
       </c>
-      <c r="V89" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="W89" s="54">
+      <c r="V89" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="W89" s="47">
         <f>O27</f>
         <v>59800000</v>
       </c>
@@ -7054,10 +7528,10 @@
       <c r="O90" s="1">
         <v>-37000000</v>
       </c>
-      <c r="V90" s="53" t="s">
+      <c r="V90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="W90" s="54">
+      <c r="W90" s="47">
         <f>O25</f>
         <v>-207200000</v>
       </c>
@@ -7108,10 +7582,10 @@
       <c r="O91" s="1">
         <v>-2271700000</v>
       </c>
-      <c r="V91" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="W91" s="56">
+      <c r="V91" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="W91" s="49">
         <f>W89/W90</f>
         <v>-0.28861003861003859</v>
       </c>
@@ -7162,10 +7636,10 @@
       <c r="O92" s="1">
         <v>1568100000</v>
       </c>
-      <c r="V92" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="W92" s="58">
+      <c r="V92" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="W92" s="51">
         <f>W88*(1-W91)</f>
         <v>6.5850192972052865E-3</v>
       </c>
@@ -7216,10 +7690,10 @@
       <c r="O93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="W93" s="66"/>
+      <c r="V93" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="W93" s="65"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7267,10 +7741,10 @@
       <c r="O94" s="10">
         <v>-933400000</v>
       </c>
-      <c r="V94" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="W94" s="59">
+      <c r="V94" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="W94" s="52">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7320,11 +7794,12 @@
       <c r="O95" s="1">
         <v>-600000</v>
       </c>
-      <c r="V95" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="W95" s="50">
-        <v>1.1599999999999999</v>
+      <c r="V95" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="W95" s="55" cm="1">
+        <f t="array" ref="W95">_FV(A1,"Beta")</f>
+        <v>1.1797</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7373,10 +7848,10 @@
       <c r="O96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V96" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="W96" s="59">
+      <c r="V96" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="W96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7426,12 +7901,12 @@
       <c r="O97" s="1">
         <v>-892300000</v>
       </c>
-      <c r="V97" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="W97" s="58">
+      <c r="V97" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="W97" s="51">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>9.0887999999999997E-2</v>
+        <v>9.1736084999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7480,10 +7955,10 @@
       <c r="O98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="W98" s="66"/>
+      <c r="V98" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="W98" s="65"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7531,10 +8006,10 @@
       <c r="O99" s="1">
         <v>86300000</v>
       </c>
-      <c r="V99" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="W99" s="54">
+      <c r="V99" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="W99" s="47">
         <f>W86+W87</f>
         <v>3952900000</v>
       </c>
@@ -7585,12 +8060,12 @@
       <c r="O100" s="10">
         <v>-806600000</v>
       </c>
-      <c r="V100" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="W100" s="56">
+      <c r="V100" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="W100" s="49">
         <f>W99/W103</f>
-        <v>6.5717482489580203E-2</v>
+        <v>6.3723115947060704E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7639,11 +8114,12 @@
       <c r="O101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V101" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="W101" s="42">
-        <v>56197000000</v>
+      <c r="V101" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="W101" s="40" cm="1">
+        <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
+        <v>58079534247</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7692,12 +8168,12 @@
       <c r="O102" s="10">
         <v>244700000</v>
       </c>
-      <c r="V102" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="W102" s="56">
+      <c r="V102" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="W102" s="49">
         <f>W101/W103</f>
-        <v>0.9342825175104198</v>
+        <v>0.9362768840529393</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7746,12 +8222,12 @@
       <c r="O103" s="1">
         <v>1880100000</v>
       </c>
-      <c r="V103" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="W103" s="60">
+      <c r="V103" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="W103" s="53">
         <f>W99+W101</f>
-        <v>60149900000</v>
+        <v>62032434247</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7800,14 +8276,14 @@
       <c r="O104" s="11">
         <v>2124800000</v>
       </c>
-      <c r="V104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="W104" s="66"/>
+      <c r="V104" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="W104" s="63"/>
     </row>
     <row r="105" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -7869,11 +8345,11 @@
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
       <c r="V105" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W105" s="24">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>8.5347820341844668E-2</v>
+        <v>8.6309993767205023E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7922,31 +8398,31 @@
       <c r="O106" s="1">
         <v>1791900000</v>
       </c>
-      <c r="P106" s="52">
+      <c r="P106" s="57">
         <f>O106*(1+$W$106)</f>
         <v>2149365088.7245364</v>
       </c>
-      <c r="Q106" s="52">
+      <c r="Q106" s="57">
         <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
         <v>2578140680.0758047</v>
       </c>
-      <c r="R106" s="52">
+      <c r="R106" s="57">
         <f t="shared" si="9"/>
         <v>3092452464.7443881</v>
       </c>
-      <c r="S106" s="52">
+      <c r="S106" s="57">
         <f t="shared" si="9"/>
         <v>3709364008.1822276</v>
       </c>
-      <c r="T106" s="52">
+      <c r="T106" s="57">
         <f t="shared" si="9"/>
         <v>4449342876.588089</v>
       </c>
       <c r="U106" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="V106" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="V106" s="31" t="s">
-        <v>147</v>
       </c>
       <c r="W106" s="32">
         <f>(SUM(P4:T4)/5)</f>
@@ -7975,13 +8451,13 @@
       <c r="S107" s="30"/>
       <c r="T107" s="33">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>75571518949.136353</v>
+        <v>74385531106.386475</v>
       </c>
       <c r="U107" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="V107" s="35" t="s">
         <v>148</v>
-      </c>
-      <c r="V107" s="35" t="s">
-        <v>149</v>
       </c>
       <c r="W107" s="36">
         <v>2.5000000000000001E-2</v>
@@ -8006,37 +8482,37 @@
       </c>
       <c r="T108" s="33">
         <f>T107+T106</f>
-        <v>80020861825.724442</v>
+        <v>78834873982.974564</v>
       </c>
       <c r="U108" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V108" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W108" s="38">
         <f>W105</f>
-        <v>8.5347820341844668E-2</v>
+        <v>8.6309993767205023E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q109" s="62"/>
+      <c r="P109" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q109" s="59"/>
     </row>
     <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="P110" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q110" s="40">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>62393179786.885704</v>
+        <v>61352792436.3377</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="P111" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q111" s="40">
         <f>O40</f>
@@ -8045,7 +8521,7 @@
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="P112" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q112" s="40">
         <f>W99</f>
@@ -8054,55 +8530,56 @@
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
       <c r="P113" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q113" s="40">
         <f>Q110+Q111-Q112</f>
-        <v>62074779786.885704</v>
+        <v>61034392436.3377</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
       <c r="P114" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q114" s="51">
+        <v>154</v>
+      </c>
+      <c r="Q114" s="45">
         <f>O34*(1+(5*U16))</f>
         <v>320527883.87453437</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="43" t="s">
+      <c r="P115" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="66">
+        <f>Q113/Q114</f>
+        <v>190.41835517882325</v>
+      </c>
+    </row>
+    <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P116" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="Q115" s="44">
-        <f>Q113/Q114</f>
-        <v>193.66421116480433</v>
-      </c>
-    </row>
-    <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="41" t="s">
+      <c r="Q116" s="56" cm="1">
+        <f t="array" ref="Q116">_FV(A1,"Price")</f>
+        <v>191.93</v>
+      </c>
+    </row>
+    <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P117" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="Q116" s="45">
-        <v>185.71</v>
-      </c>
-    </row>
-    <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="46" t="s">
+      <c r="Q117" s="43">
+        <f>Q115/Q116-1</f>
+        <v>-7.8760215764953623E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P118" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="Q117" s="47">
-        <f>Q115/Q116-1</f>
-        <v>4.2831356226397777E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q118" s="48" t="str">
+      <c r="Q118" s="44" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
